--- a/Capstone/Proposal/GanttChart.xlsx
+++ b/Capstone/Proposal/GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\NickSchool\School\Capstone\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C334E0D-E609-469F-96A7-1038084F3B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7716540A-8C4E-4A2F-ACB1-09425743F3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A6F16A90-53A5-44E6-B740-5AEFA1FFC580}"/>
   </bookViews>
@@ -100,6 +100,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,6 +163,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -167,16 +185,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -495,7 +513,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection sqref="A1:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,382 +522,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+      <c r="B1" s="6">
         <v>44326</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="6">
         <v>44333</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="6">
         <v>44340</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="6">
         <v>44347</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="6">
         <v>44354</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="6">
         <v>44361</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="6">
         <v>44368</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="6">
         <v>44375</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="6">
         <v>44382</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="6">
         <v>44389</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="6">
         <v>44396</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="6">
         <v>44399</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
